--- a/data/munges/WDFI_notes.xlsx
+++ b/data/munges/WDFI_notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnsonjoh/Dropbox/Projects/2023/August/mke-owner-networks/data/munges/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48945E7D-BD1E-844C-8170-DC3BA217D8E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CAFE6A2-7EE5-234D-ABC2-028F4E1499C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51460" yWindow="6680" windowWidth="22840" windowHeight="21100" activeTab="1" xr2:uid="{2D08E679-5B85-7043-BF4C-5D78A314EA55}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="195">
   <si>
     <t>registered_agent</t>
   </si>
@@ -614,6 +614,15 @@
   </si>
   <si>
     <t>10936 N PORT WASHINGTON RD MEQUON</t>
+  </si>
+  <si>
+    <t>5464 N PORT WASHINGTON RD, MILWAUKEE WI</t>
+  </si>
+  <si>
+    <t>shipping and mail service</t>
+  </si>
+  <si>
+    <t>5464 N PORT WASHINGTON RD, GLENDALE WI</t>
   </si>
 </sst>
 </file>
@@ -1550,10 +1559,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AEFA4D0-1E3F-2C4B-A8EA-3CE6FEA62799}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1642,7 +1651,20 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B12" t="s">
+        <v>193</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
